--- a/data/trans_dic/P1422-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1422-Edad-trans_dic.xlsx
@@ -701,12 +701,12 @@
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.01911113669915539</v>
+        <v>0.01848481551714539</v>
       </c>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="n">
-        <v>0.008827479422297575</v>
+        <v>0.01041897749660678</v>
       </c>
     </row>
     <row r="7">
@@ -787,27 +787,27 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0075480223645402</v>
+        <v>0.007562621357615242</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.007769256621305416</v>
+        <v>0.009914818800712507</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01300961784407642</v>
+        <v>0.0161713415154149</v>
       </c>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="n">
-        <v>0.009551055322565592</v>
+        <v>0.009688004684553973</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.004234565802276379</v>
+        <v>0.003988005769030824</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.005079284854216767</v>
+        <v>0.005061713317219102</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.007623652554874741</v>
+        <v>0.007596555351215491</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.00337457696537381</v>
+        <v>0.003374576965373811</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.005613036771120069</v>
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.004365664574463675</v>
+        <v>0.004591046161511395</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
       <c r="F11" s="5" t="inlineStr"/>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
-        <v>0.0008851987058479284</v>
+        <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.002132438296370565</v>
+        <v>0.002673953383730099</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0006462558851412295</v>
+        <v>0.0006629574774400562</v>
       </c>
     </row>
     <row r="12">
@@ -888,27 +888,27 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02551507739757254</v>
+        <v>0.02531176137122446</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.009134160579132331</v>
+        <v>0.008264976113835741</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.006678325803543834</v>
+        <v>0.00635730063186437</v>
       </c>
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.009818614883122485</v>
+        <v>0.009270094580688986</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01198516819481276</v>
+        <v>0.01143276442077436</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.004247473203031471</v>
+        <v>0.004871763390783612</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.00633907116615281</v>
+        <v>0.005391729897330545</v>
       </c>
     </row>
     <row r="13">
@@ -929,7 +929,7 @@
         <v>0.007649518336286712</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.008880308096276796</v>
+        <v>0.008880308096276794</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.009955082368527806</v>
@@ -958,31 +958,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.001658613123294661</v>
+        <v>0.001691012523819105</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.002962034323068657</v>
+        <v>0.002944071822188516</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.003236917917148734</v>
+        <v>0.00328178301560761</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.003458176542178872</v>
+        <v>0.003354590985488715</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.002190056205933391</v>
+        <v>0.002232200416449628</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.004080604550617697</v>
+        <v>0.004056986078610811</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.002309582455540272</v>
+        <v>0.00227915730360074</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.003741222269924501</v>
+        <v>0.003854123136609512</v>
       </c>
     </row>
     <row r="15">
@@ -993,31 +993,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01563018419962213</v>
+        <v>0.01601322109943793</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01703240281751769</v>
+        <v>0.01788374027861193</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01877887995324846</v>
+        <v>0.01895083629661721</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02021870561035272</v>
+        <v>0.01925587295318367</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.009770965474149006</v>
+        <v>0.009809484226471243</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01037794156901683</v>
+        <v>0.01103185941322535</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01469039644681681</v>
+        <v>0.01428478264511761</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0102293076242717</v>
+        <v>0.01080068295377763</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01207428499951997</v>
+        <v>0.01262698421873288</v>
       </c>
     </row>
     <row r="16">
@@ -1047,7 +1047,7 @@
         <v>0.004222973515709007</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.01607197031782884</v>
+        <v>0.01607197031782885</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.003362912614898824</v>
@@ -1056,7 +1056,7 @@
         <v>0.004495496881793204</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.02044914597239781</v>
+        <v>0.02044914597239782</v>
       </c>
     </row>
     <row r="17">
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01463041620394814</v>
+        <v>0.01341060878061665</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
@@ -1082,16 +1082,16 @@
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.009551548645037376</v>
+        <v>0.008705796718718756</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.001068486146846271</v>
+        <v>0.001072669051643772</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.001172438491522758</v>
+        <v>0.0010810033298698</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01406604273369556</v>
+        <v>0.01422947443522635</v>
       </c>
     </row>
     <row r="18">
@@ -1102,31 +1102,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01436800973999589</v>
+        <v>0.01535621700540993</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01680471147216795</v>
+        <v>0.0171362602186699</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03846767527378246</v>
+        <v>0.03827102895710805</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01048439104931162</v>
+        <v>0.01069805138195089</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.01477549479728927</v>
+        <v>0.01494315083623095</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02540865355727187</v>
+        <v>0.02500822805056643</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.008962703850494986</v>
+        <v>0.008986872086453164</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.01033099780058479</v>
+        <v>0.01026290116182201</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02788035156947008</v>
+        <v>0.02933426775211557</v>
       </c>
     </row>
     <row r="19">
@@ -1176,31 +1176,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.006490222176193336</v>
+        <v>0.006378306719423765</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.008170241817765534</v>
+        <v>0.008212394577563687</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.00880518211776931</v>
+        <v>0.009239859873119639</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.005831162785851094</v>
+        <v>0.008522207061158769</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.007498894649644613</v>
+        <v>0.007456601048788604</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.01058454434384473</v>
+        <v>0.01048055463356214</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01038302511706889</v>
+        <v>0.009335895916363831</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.0107928643763927</v>
+        <v>0.009907659387321877</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01198209171225913</v>
+        <v>0.01136989869116713</v>
       </c>
     </row>
     <row r="21">
@@ -1211,31 +1211,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03881235065007986</v>
+        <v>0.03774309295074359</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04228715876415626</v>
+        <v>0.04391644330665521</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02957178979381747</v>
+        <v>0.02980695935979641</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03452710559475988</v>
+        <v>0.0352903196475735</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.03971397484218912</v>
+        <v>0.0391263142376486</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.02946893636399499</v>
+        <v>0.03012917511047823</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.03272842676635888</v>
+        <v>0.03134314833096526</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.03345612720257454</v>
+        <v>0.03276001981100358</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.02604668112744894</v>
+        <v>0.02555269995558261</v>
       </c>
     </row>
     <row r="22">
@@ -1256,7 +1256,7 @@
         <v>0.01908430800065305</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.04610510922799979</v>
+        <v>0.0461051092279998</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.03124238884157306</v>
@@ -1274,7 +1274,7 @@
         <v>0.02198132148877729</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.03492538672926965</v>
+        <v>0.03492538672926964</v>
       </c>
     </row>
     <row r="23">
@@ -1285,31 +1285,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02559844332744999</v>
+        <v>0.02535462101716902</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.006730199027117702</v>
+        <v>0.009148330918596381</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0280957656179691</v>
+        <v>0.03001343644302065</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01630982083223431</v>
+        <v>0.01472546814758126</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.009500508602585731</v>
+        <v>0.01111768008424032</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01854766938447459</v>
+        <v>0.01815037200300261</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.02554910839833851</v>
+        <v>0.02491425813200307</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01210655657048731</v>
+        <v>0.01193725821693482</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02603673205231146</v>
+        <v>0.02550716177167643</v>
       </c>
     </row>
     <row r="24">
@@ -1320,31 +1320,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.09092943236784255</v>
+        <v>0.09460128792206808</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03870305681130271</v>
+        <v>0.03807518267853181</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.06931183407247864</v>
+        <v>0.06949595406429659</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.05480243217994304</v>
+        <v>0.05275613947439289</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.04553580179519767</v>
+        <v>0.04913461858403072</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.04260882663541034</v>
+        <v>0.04124543875610261</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.06020947789341245</v>
+        <v>0.05969427298699785</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.03808187330720404</v>
+        <v>0.03645857532914923</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.04641395668128648</v>
+        <v>0.04625763479261367</v>
       </c>
     </row>
     <row r="25">
@@ -1394,31 +1394,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.006651291581707361</v>
+        <v>0.00642069125283814</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.003998457391142097</v>
+        <v>0.004021652876140054</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.009697682073014939</v>
+        <v>0.009445945279275846</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.004442681543968316</v>
+        <v>0.004766138290239293</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.003459998997012412</v>
+        <v>0.003376992085204773</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.007994894999724122</v>
+        <v>0.008094529620521167</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.006210465108597622</v>
+        <v>0.006521217255817376</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.004399922747766326</v>
+        <v>0.004363014154180438</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.009526988193856027</v>
+        <v>0.009556331511637747</v>
       </c>
     </row>
     <row r="27">
@@ -1429,31 +1429,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01413342825751105</v>
+        <v>0.01417503574214527</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.009375302270314204</v>
+        <v>0.009375123287530464</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01683890325641329</v>
+        <v>0.01684194234977896</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.01038196422814025</v>
+        <v>0.01071049260914045</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.009385772421166947</v>
+        <v>0.00920330434604541</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.01336317397680795</v>
+        <v>0.0134168526528634</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.0110983116935818</v>
+        <v>0.01118995083157292</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.008543812726676642</v>
+        <v>0.008302921142464332</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.01376669724732113</v>
+        <v>0.01367628259453038</v>
       </c>
     </row>
     <row r="28">
@@ -1711,12 +1711,12 @@
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>6928</v>
+        <v>6701</v>
       </c>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="inlineStr"/>
       <c r="K7" s="6" t="n">
-        <v>6800</v>
+        <v>8026</v>
       </c>
     </row>
     <row r="8">
@@ -1832,27 +1832,27 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5186</v>
+        <v>5196</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>4588</v>
+        <v>5855</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>6204</v>
+        <v>7712</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>4786</v>
+        <v>4854</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>5494</v>
+        <v>5174</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>5862</v>
+        <v>5841</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>7456</v>
+        <v>7429</v>
       </c>
     </row>
     <row r="12">
@@ -1937,7 +1937,7 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2977</v>
+        <v>3130</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
@@ -1948,16 +1948,16 @@
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2967</v>
+        <v>3721</v>
       </c>
       <c r="J14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>803</v>
+        <v>824</v>
       </c>
     </row>
     <row r="15">
@@ -1968,27 +1968,27 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>17398</v>
+        <v>17259</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6112</v>
+        <v>5530</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4146</v>
+        <v>3947</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>6102</v>
+        <v>5761</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>16677</v>
+        <v>15908</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>5651</v>
+        <v>6482</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>7875</v>
+        <v>6698</v>
       </c>
     </row>
     <row r="16">
@@ -2073,31 +2073,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1019</v>
+        <v>1039</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1914</v>
+        <v>1902</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2268</v>
+        <v>2299</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2124</v>
+        <v>2061</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1613</v>
+        <v>1644</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>5015</v>
+        <v>4986</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2991</v>
+        <v>2952</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>5377</v>
+        <v>5539</v>
       </c>
     </row>
     <row r="19">
@@ -2108,31 +2108,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>9607</v>
+        <v>9842</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11004</v>
+        <v>11554</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>13157</v>
+        <v>13277</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>12420</v>
+        <v>11828</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>6342</v>
+        <v>6367</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>7643</v>
+        <v>8125</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>18053</v>
+        <v>17554</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>13248</v>
+        <v>13988</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>17352</v>
+        <v>18146</v>
       </c>
     </row>
     <row r="20">
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>8901</v>
+        <v>8158</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0</v>
@@ -2232,16 +2232,16 @@
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>5789</v>
+        <v>5276</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1143</v>
+        <v>1054</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>17082</v>
+        <v>17281</v>
       </c>
     </row>
     <row r="23">
@@ -2252,31 +2252,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6170</v>
+        <v>6594</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>8031</v>
+        <v>8190</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>23402</v>
+        <v>23283</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>4695</v>
+        <v>4791</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>7341</v>
+        <v>7424</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>15399</v>
+        <v>15156</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>7862</v>
+        <v>7884</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>10070</v>
+        <v>10004</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>33858</v>
+        <v>35624</v>
       </c>
     </row>
     <row r="24">
@@ -2361,31 +2361,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2011</v>
+        <v>1976</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2732</v>
+        <v>2746</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>3560</v>
+        <v>3736</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2064</v>
+        <v>3017</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>2833</v>
+        <v>2817</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>4648</v>
+        <v>4603</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>6892</v>
+        <v>6197</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>7686</v>
+        <v>7055</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>10107</v>
+        <v>9591</v>
       </c>
     </row>
     <row r="27">
@@ -2396,31 +2396,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>12024</v>
+        <v>11692</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>14138</v>
+        <v>14683</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>11958</v>
+        <v>12053</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>12222</v>
+        <v>12493</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>15002</v>
+        <v>14780</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>12942</v>
+        <v>13232</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>21725</v>
+        <v>20805</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>23824</v>
+        <v>23328</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>21971</v>
+        <v>21554</v>
       </c>
     </row>
     <row r="28">
@@ -2505,31 +2505,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>6396</v>
+        <v>6335</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1730</v>
+        <v>2351</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>8715</v>
+        <v>9310</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>6344</v>
+        <v>5728</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>3802</v>
+        <v>4449</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>8605</v>
+        <v>8421</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>16322</v>
+        <v>15916</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>7956</v>
+        <v>7845</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>20156</v>
+        <v>19746</v>
       </c>
     </row>
     <row r="31">
@@ -2540,31 +2540,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>22719</v>
+        <v>23636</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>9947</v>
+        <v>9785</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>21500</v>
+        <v>21558</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>21317</v>
+        <v>20521</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>18222</v>
+        <v>19662</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>19768</v>
+        <v>19135</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>38464</v>
+        <v>38134</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>25026</v>
+        <v>23959</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>35931</v>
+        <v>35810</v>
       </c>
     </row>
     <row r="32">
@@ -2649,31 +2649,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>22793</v>
+        <v>22002</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>13572</v>
+        <v>13651</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>34224</v>
+        <v>33335</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>15794</v>
+        <v>16944</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>12264</v>
+        <v>11970</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>29827</v>
+        <v>30199</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>43361</v>
+        <v>45530</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>30531</v>
+        <v>30274</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>69164</v>
+        <v>69377</v>
       </c>
     </row>
     <row r="35">
@@ -2684,31 +2684,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>48432</v>
+        <v>48575</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>31823</v>
+        <v>31822</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>59425</v>
+        <v>59436</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>36909</v>
+        <v>38077</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>33268</v>
+        <v>32621</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>49855</v>
+        <v>50055</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>77487</v>
+        <v>78127</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>59285</v>
+        <v>57613</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>99943</v>
+        <v>99287</v>
       </c>
     </row>
     <row r="36">
